--- a/Homework.xlsx
+++ b/Homework.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27921"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="148" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14D368A5-E9AE-412B-8A09-F70DE38D7263}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{962B8243-8A8E-4FD9-BD10-4D693176E390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roster" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="9855" r:id="rId4"/>
+    <pivotCache cacheId="459" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -232,18 +232,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,7 +353,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B03AA2D7-703B-42B0-A92C-F13869303F44}" name="PivotTable1" cacheId="9855" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B03AA2D7-703B-42B0-A92C-F13869303F44}" name="PivotTable1" cacheId="459" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -755,10 +754,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="2" t="s">
@@ -1033,7 +1032,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B3" t="s">
@@ -1047,10 +1046,10 @@
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4">
         <v>5.3333333333333332E-3</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4">
         <v>450</v>
       </c>
     </row>
@@ -1058,10 +1057,10 @@
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5">
         <v>2.4227740763173833E-3</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>975</v>
       </c>
     </row>
@@ -1069,10 +1068,10 @@
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6">
         <v>1.2396694214876034E-3</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6">
         <v>2000</v>
       </c>
     </row>
@@ -1080,10 +1079,10 @@
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <v>1.7391304347826088E-3</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <v>1500</v>
       </c>
     </row>
@@ -1091,10 +1090,10 @@
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8">
         <v>3.0769230769230769E-3</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>780</v>
       </c>
     </row>
@@ -1102,10 +1101,10 @@
       <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9">
         <v>1.3811830342844007E-2</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9">
         <v>5705</v>
       </c>
     </row>
@@ -1119,7 +1118,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G4" sqref="G4:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1132,32 +1131,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="4"/>
       <c r="C1" s="2"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1168,7 +1167,7 @@
       <c r="B4" s="1">
         <v>2000</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>0.21</v>
       </c>
       <c r="D4" s="1">
@@ -1183,8 +1182,8 @@
         <v>2420</v>
       </c>
       <c r="G4" s="1">
-        <f>(D4/F4)</f>
-        <v>1.2396694214876034E-3</v>
+        <f>(F4/D4)</f>
+        <v>806.66666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1194,7 +1193,7 @@
       <c r="B5" s="1">
         <v>450</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>0.25</v>
       </c>
       <c r="D5" s="1">
@@ -1209,8 +1208,8 @@
         <v>562.5</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:G8" si="2">(D5/F5)</f>
-        <v>5.3333333333333332E-3</v>
+        <f t="shared" ref="G5:G8" si="2">(F5/D5)</f>
+        <v>187.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1220,7 +1219,7 @@
       <c r="B6" s="1">
         <v>975</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>0.27</v>
       </c>
       <c r="D6" s="1">
@@ -1236,7 +1235,7 @@
       </c>
       <c r="G6" s="1">
         <f t="shared" si="2"/>
-        <v>2.4227740763173833E-3</v>
+        <v>412.75</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1246,7 +1245,7 @@
       <c r="B7" s="1">
         <v>1500</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>0.15</v>
       </c>
       <c r="D7" s="1">
@@ -1262,7 +1261,7 @@
       </c>
       <c r="G7" s="1">
         <f t="shared" si="2"/>
-        <v>1.7391304347826088E-3</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1272,7 +1271,7 @@
       <c r="B8" s="1">
         <v>780</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>0.25</v>
       </c>
       <c r="D8" s="1">
@@ -1288,7 +1287,7 @@
       </c>
       <c r="G8" s="1">
         <f t="shared" si="2"/>
-        <v>3.0769230769230769E-3</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
